--- a/results/ElasticNet-estimator_df.xlsx
+++ b/results/ElasticNet-estimator_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Best Score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Search Type</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Seed</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Train F1 Weighted </t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Test F1 Weighted </t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Y Val</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Y Pred</t>
         </is>
@@ -476,37 +486,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f9c6c039430&gt;),
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'Delta_PV',
+                                                   'Delta_RT', 'FullPath_HR',
+                                                   'FullPath_V', 'MT_HR',
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
+                ('selector', None),
                 ('model',
-                 LogisticRegression(class_weight='balanced', l1_ratio=0.7,
-                                    max_iter=1000, penalty='elasticnet',
-                                    random_state=42, solver='saga'))])</t>
+                 LogisticRegression(class_weight='balanced',
+                                    l1_ratio=0.6176871281126421, max_iter=1000,
+                                    penalty='elasticnet', random_state=42,
+                                    solver='saga'))])</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9c6c2d3f40&gt;, 'scaler': StandardScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.7, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.6176871281126421, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
         </is>
       </c>
       <c r="D2" t="n">
+        <v>0.5526651281295245</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Tree-Parzen Estimator</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>42</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.6476645616430564</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0.7121122738459804</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.4611594202898551</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>[1 0 1 0 0 1 1 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 0 0]</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 0 0 1 1 0 1 1 1 1 1 0 1 1 0 0 0 1 0 0 1]</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 0 0 1 0 0 1 1 0 0 1 1 0 1 0 0 0 1 0 0 1]</t>
         </is>
       </c>
     </row>
@@ -516,37 +563,75 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'Delta_PV',
+                                                   'Delta_RT', 'FullPath_HR',
+                                                   'FullPath_V', 'MT_HR',
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f9c6c0396a0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f668c093970&gt;),
                 ('model',
-                 LogisticRegression(class_weight='balanced', l1_ratio=0.3,
-                                    max_iter=1000, penalty='elasticnet',
-                                    random_state=42, solver='saga'))])</t>
+                 LogisticRegression(class_weight='balanced',
+                                    l1_ratio=0.589923362819949, max_iter=1000,
+                                    penalty='elasticnet', random_state=42,
+                                    solver='saga'))])</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f93b849fa90&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.3, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f67799fa220&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.589923362819949, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
         </is>
       </c>
       <c r="D3" t="n">
+        <v>0.5440036044929032</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Tree-Parzen Estimator</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>69</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.6585769331638726</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.5440917107583775</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0.6374807987711214</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1]</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[1 1 1 0 0 1 0 0 0 0 0 1 1 1 1 0 1 0 1 1 1 0 0 1]</t>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 1 0 1 0 1 0 0 1 0 1 0 1 1 1 0 0 0 1 1]</t>
         </is>
       </c>
     </row>
@@ -556,37 +641,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f93b849f5e0&gt;),
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'Delta_PV',
+                                                   'Delta_RT', 'FullPath_HR',
+                                                   'FullPath_V', 'MT_HR',
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
+                ('selector', None),
                 ('model',
-                 LogisticRegression(class_weight='balanced', l1_ratio=0.7,
-                                    max_iter=1000, penalty='elasticnet',
-                                    random_state=42, solver='saga'))])</t>
+                 LogisticRegression(class_weight='balanced',
+                                    l1_ratio=0.09772327678985551, max_iter=1000,
+                                    penalty='elasticnet', random_state=42,
+                                    solver='saga'))])</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f93b849f700&gt;, 'scaler': RobustScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.7, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.09772327678985551, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
         </is>
       </c>
       <c r="D4" t="n">
+        <v>0.4847212296609927</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tree-Parzen Estimator</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
         <v>23</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.6255258360905145</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6689976689976692</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0.6887664964018915</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0]</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 1 1 1 1 1 0 0 1 0 1 1 0 0 1 0 1 0 0 0]</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[0 0 1 0 1 1 1 1 1 1 1 0 0 1 1 1 0 1 0 0 1 0 1 0]</t>
         </is>
       </c>
     </row>
@@ -596,37 +718,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f93b849f190&gt;),
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'Delta_PV',
+                                                   'Delta_RT', 'FullPath_HR',
+                                                   'FullPath_V', 'MT_HR',
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
+                ('selector', None),
                 ('model',
-                 LogisticRegression(class_weight='balanced', l1_ratio=0.01,
-                                    max_iter=1000, penalty='elasticnet',
-                                    random_state=42, solver='saga'))])</t>
+                 LogisticRegression(class_weight='balanced',
+                                    l1_ratio=0.6897879621384697, max_iter=1000,
+                                    penalty='elasticnet', random_state=42,
+                                    solver='saga'))])</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f93e8074c10&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.01, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.6897879621384697, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
         </is>
       </c>
       <c r="D5" t="n">
+        <v>0.5309397427926166</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tree-Parzen Estimator</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>99</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.6580239399472511</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.5440917107583775</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" t="n">
+        <v>0.7007709474538447</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5034965034965034</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1]</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 1 0 1 1 0 1 0 0 1 1 1 0 0 1 1 0 1 1 0 0]</t>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[0 0 1 0 1 1 1 1 0 1 0 1 1 0 1 0 0 0 1 0 1 1 0 0]</t>
         </is>
       </c>
     </row>
@@ -636,37 +795,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f93e8074340&gt;),
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'Delta_PV',
+                                                   'Delta_RT', 'FullPath_HR',
+                                                   'FullPath_V', 'MT_HR',
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
+                ('selector', None),
                 ('model',
-                 LogisticRegression(class_weight='balanced', l1_ratio=0.95,
-                                    max_iter=1000, penalty='elasticnet',
-                                    random_state=42, solver='saga'))])</t>
+                 LogisticRegression(class_weight='balanced',
+                                    l1_ratio=0.9890779091209877, max_iter=1000,
+                                    penalty='elasticnet', random_state=42,
+                                    solver='saga'))])</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f93e80745b0&gt;, 'scaler': StandardScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.95, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__l1_ratio': 0.9890779091209877, 'model__penalty': 'elasticnet', 'model__solver': 'saga'}</t>
         </is>
       </c>
       <c r="D6" t="n">
+        <v>0.5562447465637667</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tree-Parzen Estimator</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
         <v>89</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.6683228833944557</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="n">
+        <v>0.7007709474538447</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5440579710144928</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[1 0 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 0 0 1 0]</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>[0 0 0 1 1 0 0 0 1 1 1 1 0 1 1 1 0 0 1 1 0 1 1 1]</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[0 0 1 1 1 0 0 0 1 0 1 1 0 1 1 0 0 0 0 1 0 1 0 1]</t>
         </is>
       </c>
     </row>
